--- a/data/trans_dic/P28B_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -705,22 +706,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -730,27 +731,27 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>24,16%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,36; 46,11</t>
+          <t>37,27; 46,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 28,14</t>
+          <t>19,81; 27,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 21,74</t>
+          <t>15,97; 22,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,47</t>
+          <t>12,38; 18,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,66</t>
+          <t>17,11; 23,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,09; 50,85</t>
+          <t>43,35; 50,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,02; 32,9</t>
+          <t>26,07; 32,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,61; 29,1</t>
+          <t>22,97; 29,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,64</t>
+          <t>18,42; 23,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,2; 31,01</t>
+          <t>25,04; 30,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,75; 47,69</t>
+          <t>41,87; 47,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,02; 29,03</t>
+          <t>24,14; 29,49</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,32; 24,64</t>
+          <t>20,42; 24,84</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,26</t>
+          <t>16,3; 20,6</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>21,94; 26,41</t>
+          <t>21,97; 26,35</t>
         </is>
       </c>
     </row>
@@ -850,72 +851,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>37,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 35,53</t>
+          <t>26,74; 35,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,14; 26,84</t>
+          <t>18,15; 27,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 16,61</t>
+          <t>10,29; 16,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 17,83</t>
+          <t>10,16; 18,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 28,0</t>
+          <t>13,45; 27,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 48,7</t>
+          <t>40,35; 48,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 30,79</t>
+          <t>23,53; 32,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 27,08</t>
+          <t>21,02; 27,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,33; 25,43</t>
+          <t>18,74; 26,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,06; 40,69</t>
+          <t>27,1; 41,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,83; 40,77</t>
+          <t>34,66; 40,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,1; 27,25</t>
+          <t>21,79; 28,08</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 20,85</t>
+          <t>16,46; 21,24</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 20,43</t>
+          <t>15,27; 20,85</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 31,18</t>
+          <t>21,13; 30,96</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>29,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1070,22 +1071,22 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 35,39</t>
+          <t>19,15; 35,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 32,54</t>
+          <t>11,09; 34,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 23,76</t>
+          <t>11,88; 24,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,06</t>
+          <t>6,9; 17,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,02; 49,17</t>
+          <t>33,35; 48,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,85; 37,44</t>
+          <t>21,95; 37,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,06; 34,16</t>
+          <t>19,82; 34,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 24,26</t>
+          <t>12,11; 23,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,92; 40,42</t>
+          <t>28,7; 39,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,93</t>
+          <t>18,69; 31,82</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 27,08</t>
+          <t>17,28; 26,99</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,7; 18,01</t>
+          <t>10,75; 18,69</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,22 +1191,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1215,22 +1216,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1240,22 +1241,22 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 38,48</t>
+          <t>32,75; 38,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,11; 25,23</t>
+          <t>19,98; 25,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,39</t>
+          <t>14,37; 18,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,37</t>
+          <t>11,88; 16,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,9</t>
+          <t>16,98; 23,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,83; 48,16</t>
+          <t>43,28; 48,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 30,8</t>
+          <t>26,16; 31,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,17; 27,35</t>
+          <t>23,02; 27,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 22,88</t>
+          <t>18,77; 23,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 31,95</t>
+          <t>26,04; 31,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,69; 42,46</t>
+          <t>38,8; 42,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,41; 27,36</t>
+          <t>23,99; 27,69</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>19,49; 22,53</t>
+          <t>19,36; 22,44</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 18,98</t>
+          <t>16,04; 19,3</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>22,55; 26,56</t>
+          <t>22,25; 26,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>679330</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>381713</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>310722</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>252799</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46104</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>847390</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>531321</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>468996</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>380639</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66457</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1526720</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>913034</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>779719</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>633438</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>112561</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>611255; 756168</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>319786; 450728</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>262663; 370399</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>203599; 306638</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39073; 54093</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>776316; 910227</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>470202; 593836</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>417341; 531281</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>334282; 435444</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59459; 73592</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1436496; 1618606</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>824972; 1007944</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>706699; 859956</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>563940; 712907</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>102358; 122738</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>425849</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>305495</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>182848</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>183988</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13438</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>627487</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>379061</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>329675</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>302090</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21704</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1053337</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>684556</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>512523</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>486078</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>35142</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>370763; 490146</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>249368; 382997</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>141928; 230784</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>139477; 251688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9721; 20133</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>568838; 686700</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>326732; 444488</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>288478; 379276</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>257533; 360218</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17610; 27064</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>969323; 1142748</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>602001; 775679</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>452986; 584339</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>419465; 572651</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29001; 42498</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>115905</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>80547</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72459</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47442</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>168597</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>120663</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>108174</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72799</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>284502</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>201210</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>180633</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>120242</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80971; 151833</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46383; 142408</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49808; 100673</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29161; 72766</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>137375; 198492</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>90396; 155896</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>81159; 139722</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>49886; 98172</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>239546; 330091</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>155179; 264174</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>143251; 223710</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>89760; 155983</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>721.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1195.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>653.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>538.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1221084</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>767755</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>566030</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>484229</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>59542</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1643474</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1031045</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>906845</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>755529</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>88161</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2864558</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1798800</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1472874</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1239758</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>147703</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1129780; 1328646</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>680618; 879630</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>494829; 643881</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>408852; 564698</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51050; 69294</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1563556; 1736768</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>942941; 1125662</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>828255; 986275</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>676047; 835283</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>78765; 96640</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2740127; 3014337</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1682065; 1940950</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1363295; 1580140</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1129480; 1358946</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>134195; 159389</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>